--- a/bin/Debug/net8.0/excels/Balance_Sumas_y_Saldos_FrescaTech.xlsx
+++ b/bin/Debug/net8.0/excels/Balance_Sumas_y_Saldos_FrescaTech.xlsx
@@ -14,12 +14,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
   <si>
     <t>Cuenta</t>
   </si>
@@ -79,7 +85,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,9 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -439,8 +446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:H17"/>
@@ -454,245 +461,256 @@
     <col min="7" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="0">
         <v>550000</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>95000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>455000</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
+      <c r="H5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0">
         <v>100000</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="0">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
         <v>100000</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="H6" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0">
         <v>350000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="0">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0">
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+    <row r="8">
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0">
         <v>100000</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="0">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0">
         <v>100000</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
+      <c r="H8" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="0">
         <v>25000</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0">
         <v>25000</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
+      <c r="H9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="0">
         <v>26250</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="0">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0">
         <v>26250</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="H10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0">
         <v>151250</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="0">
+        <v>0</v>
+      </c>
+      <c r="H11" s="0">
         <v>151250</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
+    <row r="12">
+      <c r="D12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="0">
         <v>350000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>300000</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>50000</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="H12" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0">
         <v>289257</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="0">
+        <v>0</v>
+      </c>
+      <c r="H13" s="0">
         <v>289257</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+    <row r="14">
+      <c r="D14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0">
         <v>60743</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
         <v>60743</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
+    <row r="15">
+      <c r="D15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="0">
         <v>80000</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="0">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0">
         <v>80000</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="0">
         <v>15000</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0">
         <v>15000</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
+      <c r="H16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="0">
         <v>1246250</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>1246250</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>851250</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>851250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>